--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/SeguroTerceraEdad.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/SeguroTerceraEdad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r06xd\Documents\Rogger\Relative\quski-bre\Matrices\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\quski-bre\Matrices\Matrices v2\Produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6750201-64D9-41EA-BEA9-61D47B78CCA3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246334EA-56EA-436F-A5E7-FCED88557341}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="108" windowWidth="14892" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="44">
   <si>
     <t>RuleSet</t>
   </si>
@@ -203,82 +203,52 @@
     <t>opcion.setCostoValoracion(auxSegurosM4);</t>
   </si>
   <si>
-    <t>0.72,2.0</t>
-  </si>
-  <si>
-    <t>0.22,2.0</t>
-  </si>
-  <si>
-    <t>1.08,3.0</t>
-  </si>
-  <si>
-    <t>0.36,3.0</t>
-  </si>
-  <si>
-    <t>1.44,4.0</t>
-  </si>
-  <si>
-    <t>0.44,4.0</t>
-  </si>
-  <si>
-    <t>0.00,6.0</t>
-  </si>
-  <si>
-    <t>3.24,9.0</t>
-  </si>
-  <si>
-    <t>0.99,9.0</t>
-  </si>
-  <si>
-    <t>4.32,12.0</t>
-  </si>
-  <si>
-    <t>1.32,12.0</t>
-  </si>
-  <si>
-    <t>6.48,18.0</t>
-  </si>
-  <si>
-    <t>1.98,18.0</t>
-  </si>
-  <si>
-    <t>0.62,2.0</t>
-  </si>
-  <si>
-    <t>0.12,2.0</t>
-  </si>
-  <si>
-    <t>0.93,3.0</t>
-  </si>
-  <si>
-    <t>0.18,3.0</t>
-  </si>
-  <si>
-    <t>1.24,4.0</t>
-  </si>
-  <si>
-    <t>0.24,4.0</t>
-  </si>
-  <si>
-    <t>2.79,9.0</t>
-  </si>
-  <si>
-    <t>0.54,9.0</t>
-  </si>
-  <si>
-    <t>3.72,12.0</t>
-  </si>
-  <si>
-    <t>0.72,12.0</t>
-  </si>
-  <si>
-    <t>5.58,18.0</t>
-  </si>
-  <si>
-    <t>1.08,18.0</t>
-  </si>
-  <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>0.026,2.0</t>
+  </si>
+  <si>
+    <t>0.026,3.0</t>
+  </si>
+  <si>
+    <t>0.026,4.0</t>
+  </si>
+  <si>
+    <t>0.31,6.0</t>
+  </si>
+  <si>
+    <t>0.06,6.0</t>
+  </si>
+  <si>
+    <t>0.31,9.0</t>
+  </si>
+  <si>
+    <t>0.06,9.0</t>
+  </si>
+  <si>
+    <t>0.31,12.0</t>
+  </si>
+  <si>
+    <t>0.06,12.0</t>
+  </si>
+  <si>
+    <t>0.31,18.0</t>
+  </si>
+  <si>
+    <t>0.06,18.0</t>
+  </si>
+  <si>
+    <t>0.31,7.0</t>
+  </si>
+  <si>
+    <t>0.31,11.0</t>
+  </si>
+  <si>
+    <t>0.06,7.0</t>
+  </si>
+  <si>
+    <t>0.06,11.0</t>
   </si>
 </sst>
 </file>
@@ -479,7 +449,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -491,31 +461,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -532,23 +488,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -878,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,10 +851,10 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -912,10 +862,10 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -927,25 +877,25 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -955,10 +905,10 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -974,16 +924,16 @@
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -993,14 +943,14 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1008,661 +958,835 @@
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="22">
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16">
         <v>2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="16">
         <v>864</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="16">
         <v>882</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="G10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16">
         <v>3</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="16">
         <v>864</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="16">
         <v>882</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
+        <v>864</v>
+      </c>
+      <c r="E12" s="16">
+        <v>882</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="22">
+      <c r="G12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16">
+        <v>6</v>
+      </c>
+      <c r="D13" s="16">
+        <v>864</v>
+      </c>
+      <c r="E13" s="16">
+        <v>882</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="16">
+        <v>7</v>
+      </c>
+      <c r="D14" s="16">
+        <v>864</v>
+      </c>
+      <c r="E14" s="16">
+        <v>882</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16">
+        <v>9</v>
+      </c>
+      <c r="D15" s="16">
+        <v>864</v>
+      </c>
+      <c r="E15" s="16">
+        <v>882</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="18">
+        <v>11</v>
+      </c>
+      <c r="D16" s="16">
+        <v>864</v>
+      </c>
+      <c r="E16" s="16">
+        <v>882</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16">
+        <v>12</v>
+      </c>
+      <c r="D17" s="16">
+        <v>864</v>
+      </c>
+      <c r="E17" s="16">
+        <v>882</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="18">
+        <v>18</v>
+      </c>
+      <c r="D18" s="16">
+        <v>864</v>
+      </c>
+      <c r="E18" s="16">
+        <v>882</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="16">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19">
+        <v>883</v>
+      </c>
+      <c r="E19" s="16">
+        <v>888</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19">
+        <v>883</v>
+      </c>
+      <c r="E20" s="16">
+        <v>888</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="23">
-        <v>864</v>
-      </c>
-      <c r="E12" s="23">
-        <v>882</v>
-      </c>
-      <c r="F12" s="24" t="s">
+      <c r="D21" s="19">
+        <v>883</v>
+      </c>
+      <c r="E21" s="16">
+        <v>888</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="16">
+        <v>6</v>
+      </c>
+      <c r="D22" s="19">
+        <v>883</v>
+      </c>
+      <c r="E22" s="16">
+        <v>888</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="22">
+      <c r="H22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="16">
+        <v>7</v>
+      </c>
+      <c r="D23" s="19">
+        <v>883</v>
+      </c>
+      <c r="E23" s="16">
+        <v>888</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="16">
+        <v>9</v>
+      </c>
+      <c r="D24" s="19">
+        <v>883</v>
+      </c>
+      <c r="E24" s="16">
+        <v>888</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="18">
+        <v>11</v>
+      </c>
+      <c r="D25" s="19">
+        <v>883</v>
+      </c>
+      <c r="E25" s="16">
+        <v>888</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="16">
+        <v>12</v>
+      </c>
+      <c r="D26" s="19">
+        <v>883</v>
+      </c>
+      <c r="E26" s="16">
+        <v>888</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="18">
+        <v>18</v>
+      </c>
+      <c r="D27" s="19">
+        <v>883</v>
+      </c>
+      <c r="E27" s="16">
+        <v>888</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="16">
+        <v>2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>900</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3</v>
+      </c>
+      <c r="D29" s="16">
+        <v>900</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="16">
+        <v>4</v>
+      </c>
+      <c r="D30" s="16">
+        <v>900</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="16">
         <v>6</v>
       </c>
-      <c r="D13" s="23">
-        <v>864</v>
-      </c>
-      <c r="E13" s="23">
-        <v>882</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="D31" s="16">
+        <v>900</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="16">
+        <v>7</v>
+      </c>
+      <c r="D32" s="16">
+        <v>900</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="16">
+        <v>9</v>
+      </c>
+      <c r="D33" s="16">
+        <v>900</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="22">
-        <v>9</v>
-      </c>
-      <c r="D14" s="23">
-        <v>864</v>
-      </c>
-      <c r="E14" s="23">
-        <v>882</v>
-      </c>
-      <c r="F14" s="24" t="s">
+      <c r="G33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="H33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="18">
+        <v>11</v>
+      </c>
+      <c r="D34" s="16">
+        <v>900</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="16">
+        <v>12</v>
+      </c>
+      <c r="D35" s="16">
+        <v>900</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="22">
-        <v>12</v>
-      </c>
-      <c r="D15" s="23">
-        <v>864</v>
-      </c>
-      <c r="E15" s="23">
-        <v>882</v>
-      </c>
-      <c r="F15" s="24" t="s">
+      <c r="G35" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="H35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="16">
+        <v>18</v>
+      </c>
+      <c r="D36" s="16">
+        <v>900</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1199</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="26">
-        <v>18</v>
-      </c>
-      <c r="D16" s="23">
-        <v>864</v>
-      </c>
-      <c r="E16" s="23">
-        <v>882</v>
-      </c>
-      <c r="F16" s="24" t="s">
+      <c r="G36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="22">
-        <v>2</v>
-      </c>
-      <c r="D17" s="27">
-        <v>883</v>
-      </c>
-      <c r="E17" s="23">
-        <v>888</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="22">
-        <v>3</v>
-      </c>
-      <c r="D18" s="27">
-        <v>883</v>
-      </c>
-      <c r="E18" s="23">
-        <v>888</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="22">
-        <v>4</v>
-      </c>
-      <c r="D19" s="27">
-        <v>883</v>
-      </c>
-      <c r="E19" s="23">
-        <v>888</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="22">
-        <v>6</v>
-      </c>
-      <c r="D20" s="27">
-        <v>883</v>
-      </c>
-      <c r="E20" s="23">
-        <v>888</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22">
-        <v>9</v>
-      </c>
-      <c r="D21" s="27">
-        <v>883</v>
-      </c>
-      <c r="E21" s="23">
-        <v>888</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="22">
-        <v>12</v>
-      </c>
-      <c r="D22" s="27">
-        <v>883</v>
-      </c>
-      <c r="E22" s="23">
-        <v>888</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="26">
-        <v>18</v>
-      </c>
-      <c r="D23" s="27">
-        <v>883</v>
-      </c>
-      <c r="E23" s="23">
-        <v>888</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="22">
-        <v>2</v>
-      </c>
-      <c r="D24" s="23">
-        <v>900</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1199</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="22">
-        <v>3</v>
-      </c>
-      <c r="D25" s="23">
-        <v>900</v>
-      </c>
-      <c r="E25" s="23">
-        <v>1199</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="22">
-        <v>4</v>
-      </c>
-      <c r="D26" s="23">
-        <v>900</v>
-      </c>
-      <c r="E26" s="23">
-        <v>1199</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="22">
-        <v>6</v>
-      </c>
-      <c r="D27" s="23">
-        <v>900</v>
-      </c>
-      <c r="E27" s="23">
-        <v>1199</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="22">
-        <v>9</v>
-      </c>
-      <c r="D28" s="23">
-        <v>900</v>
-      </c>
-      <c r="E28" s="23">
-        <v>1199</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="22">
-        <v>12</v>
-      </c>
-      <c r="D29" s="23">
-        <v>900</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1199</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="26">
-        <v>18</v>
-      </c>
-      <c r="D30" s="23">
-        <v>900</v>
-      </c>
-      <c r="E30" s="23">
-        <v>1199</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>53</v>
+      <c r="H36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
